--- a/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理表_テンプレート.xlsx
+++ b/nts.uk/uk.at/at.ctx/function/nts.uk.ctx.at.function.infra/src/main/resources/report/休暇残数管理表_テンプレート.xlsx
@@ -45225,7 +45225,7 @@
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="90" zoomScaleNormal="120" zoomScaleSheetLayoutView="115" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="AD8" sqref="AD8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="12" customHeight="1"/>
@@ -46114,12 +46114,12 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.98425196850393704" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.31496062992125984"/>
+  <pageMargins left="0.39370078740157499" right="0.39370078740157499" top="0.98425196850393704" bottom="0.39370078740157499" header="0.39370078740157499" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;"MSゴシック,Regular"日通システム株式会社
-&amp;C&amp;"MSゴシック,Bold"&amp;16休暇残数管理表&amp;R&amp;"MSゴシック,Regular"&amp;D　&amp;T　
-page&amp;P</oddHeader>
+    <oddHeader xml:space="preserve">&amp;L&amp;"MSゴシック,Regular"日通システム株式会社
+&amp;C&amp;"MSゴシック,Bold"&amp;16休暇残数管理表&amp;R&amp;"MSゴシック,Regular"　
+</oddHeader>
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
